--- a/Code/Results/Cases/Case_9_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.11439054792485</v>
+        <v>19.8547535338979</v>
       </c>
       <c r="C2">
-        <v>15.21304647769853</v>
+        <v>15.59581224131253</v>
       </c>
       <c r="D2">
-        <v>4.234587671448859</v>
+        <v>4.316168360281336</v>
       </c>
       <c r="E2">
-        <v>29.49447223785352</v>
+        <v>29.44946808773542</v>
       </c>
       <c r="F2">
-        <v>17.67959242447773</v>
+        <v>17.39379377059148</v>
       </c>
       <c r="G2">
-        <v>22.3846570478279</v>
+        <v>21.26210800699258</v>
       </c>
       <c r="H2">
-        <v>3.332553766603535</v>
+        <v>3.305274703627977</v>
       </c>
       <c r="I2">
-        <v>3.47260308528102</v>
+        <v>3.438113747105121</v>
       </c>
       <c r="J2">
-        <v>8.18287867860246</v>
+        <v>8.778003860762491</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.84354608120571</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.22864994244958</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.91921603471124</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.64545188919423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.00827440503979</v>
+      </c>
+      <c r="S2">
+        <v>13.44143284556002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.80602075678545</v>
+        <v>18.59788224121979</v>
       </c>
       <c r="C3">
-        <v>14.42530976791201</v>
+        <v>14.70129657251058</v>
       </c>
       <c r="D3">
-        <v>4.056527708035063</v>
+        <v>4.12169396225723</v>
       </c>
       <c r="E3">
-        <v>27.64806648817078</v>
+        <v>27.61280054602125</v>
       </c>
       <c r="F3">
-        <v>17.01330271169173</v>
+        <v>16.78498776795686</v>
       </c>
       <c r="G3">
-        <v>21.37994038389377</v>
+        <v>20.32221832954115</v>
       </c>
       <c r="H3">
-        <v>3.099389586593127</v>
+        <v>3.078427421649192</v>
       </c>
       <c r="I3">
-        <v>3.325267431379165</v>
+        <v>3.307586571846354</v>
       </c>
       <c r="J3">
-        <v>8.108439774440399</v>
+        <v>8.700288530052717</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.01070532101206</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.192602238135584</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.94136328119697</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.33181492058035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.00166203255538</v>
+      </c>
+      <c r="S3">
+        <v>13.17056649442307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.95161956632072</v>
+        <v>17.77691884178391</v>
       </c>
       <c r="C4">
-        <v>13.92229200389943</v>
+        <v>14.12897701846471</v>
       </c>
       <c r="D4">
-        <v>3.942674746788381</v>
+        <v>3.99734338337766</v>
       </c>
       <c r="E4">
-        <v>26.45158081843497</v>
+        <v>26.42255087233355</v>
       </c>
       <c r="F4">
-        <v>16.59927909413823</v>
+        <v>16.40615570895634</v>
       </c>
       <c r="G4">
-        <v>20.74956658142078</v>
+        <v>19.73293859126256</v>
       </c>
       <c r="H4">
-        <v>2.951113416829225</v>
+        <v>2.934113863555396</v>
       </c>
       <c r="I4">
-        <v>3.232234956753498</v>
+        <v>3.225271791206467</v>
       </c>
       <c r="J4">
-        <v>8.065377479062375</v>
+        <v>8.653054674090717</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.11594052612435</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.196308779869613</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.95795964417126</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.1414922503918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.0009604009014</v>
+      </c>
+      <c r="S4">
+        <v>13.0057364890788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.58512286757862</v>
+        <v>17.42456056535658</v>
       </c>
       <c r="C5">
-        <v>13.72271619559041</v>
+        <v>13.90043513725385</v>
       </c>
       <c r="D5">
-        <v>3.896442434422193</v>
+        <v>3.946736308507217</v>
       </c>
       <c r="E5">
-        <v>25.94802352284009</v>
+        <v>25.92161945218785</v>
       </c>
       <c r="F5">
-        <v>16.42246862857723</v>
+        <v>16.24369543342493</v>
       </c>
       <c r="G5">
-        <v>20.47650371819405</v>
+        <v>19.47673692110187</v>
       </c>
       <c r="H5">
-        <v>2.889253553817657</v>
+        <v>2.873897040560534</v>
       </c>
       <c r="I5">
-        <v>3.193931522509067</v>
+        <v>3.191681639464424</v>
       </c>
       <c r="J5">
-        <v>8.046328397899478</v>
+        <v>8.631874811114656</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.15511754913655</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.201357436917223</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.96678215736654</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.05905326244595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.00288562402098</v>
+      </c>
+      <c r="S5">
+        <v>12.93355696732356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.51682248108864</v>
+        <v>17.35869218485461</v>
       </c>
       <c r="C6">
-        <v>13.70170738456645</v>
+        <v>13.87479383145752</v>
       </c>
       <c r="D6">
-        <v>3.890257524008165</v>
+        <v>3.939821993024898</v>
       </c>
       <c r="E6">
-        <v>25.86318348175104</v>
+        <v>25.83723344499386</v>
       </c>
       <c r="F6">
-        <v>16.38437592694213</v>
+        <v>16.20807992360853</v>
       </c>
       <c r="G6">
-        <v>20.41491542597477</v>
+        <v>19.41778116303724</v>
       </c>
       <c r="H6">
-        <v>2.878743266240647</v>
+        <v>2.863668039939701</v>
       </c>
       <c r="I6">
-        <v>3.188029181592769</v>
+        <v>3.186902881341505</v>
       </c>
       <c r="J6">
-        <v>8.040566244337993</v>
+        <v>8.625850671781594</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.15633634310368</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.199019957998695</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.96991831865587</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.03866017578092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.00495420071032</v>
+      </c>
+      <c r="S6">
+        <v>12.91496529455566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.92895395555246</v>
+        <v>17.7484707065175</v>
       </c>
       <c r="C7">
-        <v>13.95293877408623</v>
+        <v>14.15248100445139</v>
       </c>
       <c r="D7">
-        <v>3.946259879748505</v>
+        <v>4.003722611569112</v>
       </c>
       <c r="E7">
-        <v>26.44412237918258</v>
+        <v>26.41456594817354</v>
       </c>
       <c r="F7">
-        <v>16.57349181505872</v>
+        <v>16.36596527725935</v>
       </c>
       <c r="G7">
-        <v>20.7026730581311</v>
+        <v>19.78973408256164</v>
       </c>
       <c r="H7">
-        <v>2.949857367978673</v>
+        <v>2.932548292444146</v>
       </c>
       <c r="I7">
-        <v>3.232804655461136</v>
+        <v>3.226247342083359</v>
       </c>
       <c r="J7">
-        <v>8.057936521165573</v>
+        <v>8.601280184396114</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.09757373577409</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.182644580480445</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.96259354120011</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.1220958032134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.00740833221016</v>
+      </c>
+      <c r="S7">
+        <v>12.97534515311394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.65211409944112</v>
+        <v>19.39127118219034</v>
       </c>
       <c r="C8">
-        <v>14.98709601562744</v>
+        <v>15.31159878449778</v>
       </c>
       <c r="D8">
-        <v>4.179481399515348</v>
+        <v>4.264550965755601</v>
       </c>
       <c r="E8">
-        <v>28.86998563377407</v>
+        <v>28.82654601061487</v>
       </c>
       <c r="F8">
-        <v>17.42144477639887</v>
+        <v>17.10852092708181</v>
       </c>
       <c r="G8">
-        <v>21.98711352950163</v>
+        <v>21.21316282648874</v>
       </c>
       <c r="H8">
-        <v>3.25267399435006</v>
+        <v>3.226497932915017</v>
       </c>
       <c r="I8">
-        <v>3.423433105371597</v>
+        <v>3.394119244547824</v>
       </c>
       <c r="J8">
-        <v>8.147280973225099</v>
+        <v>8.596820708993588</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.86942730464579</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.18127558820209</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.93251692908816</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.51336752641343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.01787075490432</v>
+      </c>
+      <c r="S8">
+        <v>13.28761876492728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.65612440312986</v>
+        <v>22.27391746176234</v>
       </c>
       <c r="C9">
-        <v>16.80224436238072</v>
+        <v>17.36765208198551</v>
       </c>
       <c r="D9">
-        <v>4.592809045289598</v>
+        <v>4.717927964083186</v>
       </c>
       <c r="E9">
-        <v>33.12993358009624</v>
+        <v>33.06300850000754</v>
       </c>
       <c r="F9">
-        <v>19.07517571952265</v>
+        <v>18.61112848197423</v>
       </c>
       <c r="G9">
-        <v>24.45768048275854</v>
+        <v>23.58278974011858</v>
       </c>
       <c r="H9">
-        <v>3.807583934389046</v>
+        <v>3.765854472707427</v>
       </c>
       <c r="I9">
-        <v>3.776347844279187</v>
+        <v>3.70599318258889</v>
       </c>
       <c r="J9">
-        <v>8.356451095480216</v>
+        <v>8.764686199202925</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.48181069616091</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.418075996813556</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.88955926050503</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.32718370569849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.05047960098968</v>
+      </c>
+      <c r="S9">
+        <v>13.98324410464978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.56779113267043</v>
+        <v>24.08193142331549</v>
       </c>
       <c r="C10">
-        <v>18.00452365024419</v>
+        <v>18.68524477007426</v>
       </c>
       <c r="D10">
-        <v>4.897461887101316</v>
+        <v>5.062615969406699</v>
       </c>
       <c r="E10">
-        <v>35.08046147838751</v>
+        <v>34.99457028928914</v>
       </c>
       <c r="F10">
-        <v>20.13084934817822</v>
+        <v>19.49253000275138</v>
       </c>
       <c r="G10">
-        <v>25.97021292221399</v>
+        <v>25.52704089022302</v>
       </c>
       <c r="H10">
-        <v>4.155835600671464</v>
+        <v>4.101811783212539</v>
       </c>
       <c r="I10">
-        <v>4.018585966500948</v>
+        <v>3.918705235899941</v>
       </c>
       <c r="J10">
-        <v>8.484822302513157</v>
+        <v>8.616326945123429</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.15910595158299</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.633187727680951</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.89630867403331</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.83412613221763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.12516320878087</v>
+      </c>
+      <c r="S10">
+        <v>14.34872218137247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.98221719834444</v>
+        <v>24.4438024667793</v>
       </c>
       <c r="C11">
-        <v>18.19729833377125</v>
+        <v>18.79457890206282</v>
       </c>
       <c r="D11">
-        <v>5.233201961691464</v>
+        <v>5.431850362620497</v>
       </c>
       <c r="E11">
-        <v>28.46474370437672</v>
+        <v>28.36612336242532</v>
       </c>
       <c r="F11">
-        <v>19.63003963098988</v>
+        <v>18.84840126817714</v>
       </c>
       <c r="G11">
-        <v>24.88664980178854</v>
+        <v>25.54819595006475</v>
       </c>
       <c r="H11">
-        <v>4.504628425502834</v>
+        <v>4.452455504015901</v>
       </c>
       <c r="I11">
-        <v>4.076314125138488</v>
+        <v>3.96743335532021</v>
       </c>
       <c r="J11">
-        <v>8.227092647495752</v>
+        <v>7.911418884453648</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.76708933579712</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.330489994062116</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.08807352329945</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.27478924521184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.36232980153617</v>
+      </c>
+      <c r="S11">
+        <v>13.68036562140706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.96625066103474</v>
+        <v>24.42069153631448</v>
       </c>
       <c r="C12">
-        <v>18.07663854013911</v>
+        <v>18.60023153320635</v>
       </c>
       <c r="D12">
-        <v>5.450569998311148</v>
+        <v>5.660863422457311</v>
       </c>
       <c r="E12">
-        <v>22.51531531460637</v>
+        <v>22.40615431520054</v>
       </c>
       <c r="F12">
-        <v>19.00365437403801</v>
+        <v>18.18193884282188</v>
       </c>
       <c r="G12">
-        <v>23.69252137041685</v>
+        <v>24.90399289758824</v>
       </c>
       <c r="H12">
-        <v>5.308990668682295</v>
+        <v>5.265785398759969</v>
       </c>
       <c r="I12">
-        <v>4.077811168735604</v>
+        <v>3.966790714108797</v>
       </c>
       <c r="J12">
-        <v>7.986455746787989</v>
+        <v>7.525047557502329</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.544185446591035</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.057296111806113</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.24656525026981</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.70837973115155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.53662606319335</v>
+      </c>
+      <c r="S12">
+        <v>13.08994824519293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59835711934821</v>
+        <v>24.09189479340771</v>
       </c>
       <c r="C13">
-        <v>17.74674089030819</v>
+        <v>18.21260561445586</v>
       </c>
       <c r="D13">
-        <v>5.599905014611088</v>
+        <v>5.79877530051713</v>
       </c>
       <c r="E13">
-        <v>16.6123172959897</v>
+        <v>16.49070049521762</v>
       </c>
       <c r="F13">
-        <v>18.19503490873407</v>
+        <v>17.4424034221807</v>
       </c>
       <c r="G13">
-        <v>22.25084824948284</v>
+        <v>23.41352550051404</v>
       </c>
       <c r="H13">
-        <v>6.331170824028458</v>
+        <v>6.297896474678276</v>
       </c>
       <c r="I13">
-        <v>4.038443978265759</v>
+        <v>3.932525430961362</v>
       </c>
       <c r="J13">
-        <v>7.73204195838176</v>
+        <v>7.396139400829527</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.413293501604816</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.782273555242735</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.39240619146023</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.06715505622083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.66931366176637</v>
+      </c>
+      <c r="S13">
+        <v>12.51442645592171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.17292769013658</v>
+        <v>23.71476896740143</v>
       </c>
       <c r="C14">
-        <v>17.42661569477113</v>
+        <v>17.8579093480224</v>
       </c>
       <c r="D14">
-        <v>5.67625892946334</v>
+        <v>5.856477898987075</v>
       </c>
       <c r="E14">
-        <v>12.57150748745287</v>
+        <v>12.43554288401636</v>
       </c>
       <c r="F14">
-        <v>17.53214034730999</v>
+        <v>16.87652551006716</v>
       </c>
       <c r="G14">
-        <v>21.10172003804486</v>
+        <v>21.96586881711822</v>
       </c>
       <c r="H14">
-        <v>7.132420130755943</v>
+        <v>7.105359154968725</v>
       </c>
       <c r="I14">
-        <v>3.993649000501676</v>
+        <v>3.894748795322069</v>
       </c>
       <c r="J14">
-        <v>7.545753871274695</v>
+        <v>7.402973244706755</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.355718859483208</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.588543825135925</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.48983624630716</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.57638187353089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.74415560276982</v>
+      </c>
+      <c r="S14">
+        <v>12.10862162286373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.98647412051849</v>
+        <v>23.54936762643035</v>
       </c>
       <c r="C15">
-        <v>17.31277109236375</v>
+        <v>17.73779417583495</v>
       </c>
       <c r="D15">
-        <v>5.681896033692642</v>
+        <v>5.852955967637993</v>
       </c>
       <c r="E15">
-        <v>11.60752191909058</v>
+        <v>11.46823545106937</v>
       </c>
       <c r="F15">
-        <v>17.32392313597638</v>
+        <v>16.71299053687551</v>
       </c>
       <c r="G15">
-        <v>20.75335958655743</v>
+        <v>21.43112194484375</v>
       </c>
       <c r="H15">
-        <v>7.317429344890559</v>
+        <v>7.292053044978192</v>
       </c>
       <c r="I15">
-        <v>3.974136955420712</v>
+        <v>3.878951061894895</v>
       </c>
       <c r="J15">
-        <v>7.496039006174231</v>
+        <v>7.445456819866593</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.354212711825387</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.537736752107174</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.51210309934664</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.43605384281166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.75524275910839</v>
+      </c>
+      <c r="S15">
+        <v>12.00561062356521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.24538797026839</v>
+        <v>22.88773783316427</v>
       </c>
       <c r="C16">
-        <v>16.88265955887712</v>
+        <v>17.32000426682522</v>
       </c>
       <c r="D16">
-        <v>5.53625065297974</v>
+        <v>5.66863439052034</v>
       </c>
       <c r="E16">
-        <v>11.51951664625336</v>
+        <v>11.39763660917943</v>
       </c>
       <c r="F16">
-        <v>16.98214257097534</v>
+        <v>16.54670508507752</v>
       </c>
       <c r="G16">
-        <v>20.2882395694181</v>
+        <v>20.02846087699444</v>
       </c>
       <c r="H16">
-        <v>7.045169210838824</v>
+        <v>7.023080262728386</v>
       </c>
       <c r="I16">
-        <v>3.881101019515785</v>
+        <v>3.801303167205632</v>
       </c>
       <c r="J16">
-        <v>7.485092182714556</v>
+        <v>7.823011968803869</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.49895214855297</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.546672259516232</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.47058062315786</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.31757139884327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.66507937024463</v>
+      </c>
+      <c r="S16">
+        <v>12.02439593408217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.90089265389594</v>
+        <v>22.57098289552577</v>
       </c>
       <c r="C17">
-        <v>16.72468245564233</v>
+        <v>17.18178925748744</v>
       </c>
       <c r="D17">
-        <v>5.380287511379419</v>
+        <v>5.497498139771824</v>
       </c>
       <c r="E17">
-        <v>13.62544411822827</v>
+        <v>13.52386196297791</v>
       </c>
       <c r="F17">
-        <v>17.08499383174722</v>
+        <v>16.71236177558897</v>
       </c>
       <c r="G17">
-        <v>20.56784120110245</v>
+        <v>19.88123278552157</v>
       </c>
       <c r="H17">
-        <v>6.360851255451082</v>
+        <v>6.338405949554839</v>
       </c>
       <c r="I17">
-        <v>3.832992504929964</v>
+        <v>3.760879364125533</v>
       </c>
       <c r="J17">
-        <v>7.576851954279232</v>
+        <v>8.074871618653425</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.646542995296718</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.646898178974583</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.38891650088689</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.49387440004438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.56292694339008</v>
+      </c>
+      <c r="S17">
+        <v>12.2458271777341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.88448782590628</v>
+        <v>22.54990077712681</v>
       </c>
       <c r="C18">
-        <v>16.76844961046358</v>
+        <v>17.26693149157157</v>
       </c>
       <c r="D18">
-        <v>5.196168757971843</v>
+        <v>5.311201409138395</v>
       </c>
       <c r="E18">
-        <v>18.16992158887522</v>
+        <v>18.08558149926287</v>
       </c>
       <c r="F18">
-        <v>17.59563959906655</v>
+        <v>17.22302666349647</v>
       </c>
       <c r="G18">
-        <v>21.5476119606797</v>
+        <v>20.64529035994409</v>
       </c>
       <c r="H18">
-        <v>5.333292523862988</v>
+        <v>5.306586893796576</v>
       </c>
       <c r="I18">
-        <v>3.818831461199312</v>
+        <v>3.747961469465355</v>
       </c>
       <c r="J18">
-        <v>7.770217455506717</v>
+        <v>8.318051306593237</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.830649445008245</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.849333227335025</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.26007140647494</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.95248884921656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.42913471520942</v>
+      </c>
+      <c r="S18">
+        <v>12.6982405036944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.10995778872601</v>
+        <v>22.74933108403036</v>
       </c>
       <c r="C19">
-        <v>17.02876650219896</v>
+        <v>17.58857057201286</v>
       </c>
       <c r="D19">
-        <v>5.012987058446218</v>
+        <v>5.133727979411443</v>
       </c>
       <c r="E19">
-        <v>24.42763556401082</v>
+        <v>24.35195361536982</v>
       </c>
       <c r="F19">
-        <v>18.34784651341007</v>
+        <v>17.93734661116973</v>
       </c>
       <c r="G19">
-        <v>22.93146308969312</v>
+        <v>21.92067992153551</v>
       </c>
       <c r="H19">
-        <v>4.363242075911471</v>
+        <v>4.327949601741165</v>
       </c>
       <c r="I19">
-        <v>3.84216156187996</v>
+        <v>3.769268400579562</v>
       </c>
       <c r="J19">
-        <v>8.017331611500007</v>
+        <v>8.555216086361488</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.02014656439091</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.09924623832408</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.11682096824353</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.56839790566673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.29098344059626</v>
+      </c>
+      <c r="S19">
+        <v>13.27742784729499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.03678447458064</v>
+        <v>23.59494581425985</v>
       </c>
       <c r="C20">
-        <v>17.77862943752592</v>
+        <v>18.45170429923886</v>
       </c>
       <c r="D20">
-        <v>4.831561319996518</v>
+        <v>4.977676326392682</v>
       </c>
       <c r="E20">
-        <v>34.53877590317463</v>
+        <v>34.45951622656841</v>
       </c>
       <c r="F20">
-        <v>19.78979659412041</v>
+        <v>19.24313026357831</v>
       </c>
       <c r="G20">
-        <v>25.4587943508416</v>
+        <v>24.60035933579373</v>
       </c>
       <c r="H20">
-        <v>4.062198216863958</v>
+        <v>4.012442278391974</v>
       </c>
       <c r="I20">
-        <v>3.960543097223068</v>
+        <v>3.872791452124123</v>
       </c>
       <c r="J20">
-        <v>8.427482075692263</v>
+        <v>8.782601031606557</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.22192648287963</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.540188478376045</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.9105744133424</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.64570011204535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.1151770656172</v>
+      </c>
+      <c r="S20">
+        <v>14.23577008544063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.50944380925035</v>
+        <v>24.89817911857716</v>
       </c>
       <c r="C21">
-        <v>18.7149300796896</v>
+        <v>19.37692164343216</v>
       </c>
       <c r="D21">
-        <v>5.019323311712829</v>
+        <v>5.241758043105657</v>
       </c>
       <c r="E21">
-        <v>37.30797670694294</v>
+        <v>37.20630985312167</v>
       </c>
       <c r="F21">
-        <v>20.76999187950518</v>
+        <v>19.8475990478793</v>
       </c>
       <c r="G21">
-        <v>26.92555434642412</v>
+        <v>27.93664572456767</v>
       </c>
       <c r="H21">
-        <v>4.380365788146629</v>
+        <v>4.315710477801917</v>
       </c>
       <c r="I21">
-        <v>4.152325873415908</v>
+        <v>4.03345604274356</v>
       </c>
       <c r="J21">
-        <v>8.589983899248875</v>
+        <v>7.981055925332519</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.968387259375524</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.707791423814443</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.88833438626107</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.18501311070218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.1858933036951</v>
+      </c>
+      <c r="S21">
+        <v>14.46364551055442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.42131094571113</v>
+        <v>25.70011810273779</v>
       </c>
       <c r="C22">
-        <v>19.25250952010732</v>
+        <v>19.89552395307723</v>
       </c>
       <c r="D22">
-        <v>5.144888237672019</v>
+        <v>5.418429830005364</v>
       </c>
       <c r="E22">
-        <v>38.61054943193284</v>
+        <v>38.49454012621106</v>
       </c>
       <c r="F22">
-        <v>21.3684636762741</v>
+        <v>20.19302038238802</v>
       </c>
       <c r="G22">
-        <v>27.80572423998109</v>
+        <v>30.10531260531781</v>
       </c>
       <c r="H22">
-        <v>4.565773708635647</v>
+        <v>4.491715349940222</v>
       </c>
       <c r="I22">
-        <v>4.270499139623796</v>
+        <v>4.130825191264853</v>
       </c>
       <c r="J22">
-        <v>8.689207250194086</v>
+        <v>7.449063224766869</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.802398277222945</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.823239565839553</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.87992976755515</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.51226164577101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.24220437976702</v>
+      </c>
+      <c r="S22">
+        <v>14.57775265188538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.95381539594491</v>
+        <v>25.30254230712447</v>
       </c>
       <c r="C23">
-        <v>18.93682980976078</v>
+        <v>19.60444769354567</v>
       </c>
       <c r="D23">
-        <v>5.074193162088645</v>
+        <v>5.314294197140023</v>
       </c>
       <c r="E23">
-        <v>37.92090641528281</v>
+        <v>37.81339882663095</v>
       </c>
       <c r="F23">
-        <v>21.07208207434964</v>
+        <v>20.06327482348545</v>
       </c>
       <c r="G23">
-        <v>27.37712745070347</v>
+        <v>28.77755319657487</v>
       </c>
       <c r="H23">
-        <v>4.467550033362844</v>
+        <v>4.399058806484019</v>
       </c>
       <c r="I23">
-        <v>4.205552562522096</v>
+        <v>4.076656599579154</v>
       </c>
       <c r="J23">
-        <v>8.643867161905181</v>
+        <v>7.827519171131485</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.909213758290123</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.792248753939041</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.87771157915829</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.35618455577792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.1992592149378</v>
+      </c>
+      <c r="S23">
+        <v>14.56176608830536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.07313347060417</v>
+        <v>23.62944660510101</v>
       </c>
       <c r="C24">
-        <v>17.74908058803296</v>
+        <v>18.42785921558592</v>
       </c>
       <c r="D24">
-        <v>4.803606469472361</v>
+        <v>4.949708242685102</v>
       </c>
       <c r="E24">
-        <v>35.19937220256089</v>
+        <v>35.12016076158577</v>
       </c>
       <c r="F24">
-        <v>19.89669155470126</v>
+        <v>19.34808002695016</v>
       </c>
       <c r="G24">
-        <v>25.6571667440645</v>
+        <v>24.77564166683884</v>
       </c>
       <c r="H24">
-        <v>4.087520279608388</v>
+        <v>4.03758254278285</v>
       </c>
       <c r="I24">
-        <v>3.958981039591134</v>
+        <v>3.869164763690429</v>
       </c>
       <c r="J24">
-        <v>8.465239808376152</v>
+        <v>8.824289817150941</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.26457344512625</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.594191157229429</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.88612902663813</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.73691730155607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.08979421471319</v>
+      </c>
+      <c r="S24">
+        <v>14.32452609376596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.85957481708678</v>
+        <v>21.51630142903293</v>
       </c>
       <c r="C25">
-        <v>16.38115414734276</v>
+        <v>16.89445995577604</v>
       </c>
       <c r="D25">
-        <v>4.491946548196002</v>
+        <v>4.603007532615178</v>
       </c>
       <c r="E25">
-        <v>32.02968365063417</v>
+        <v>31.96974560162909</v>
       </c>
       <c r="F25">
-        <v>18.59641896340783</v>
+        <v>18.19248181637313</v>
       </c>
       <c r="G25">
-        <v>23.73544251906591</v>
+        <v>22.75630379234041</v>
       </c>
       <c r="H25">
-        <v>3.660891795623994</v>
+        <v>3.6237821400654</v>
       </c>
       <c r="I25">
-        <v>3.685234481833919</v>
+        <v>3.627895135070368</v>
       </c>
       <c r="J25">
-        <v>8.28499273982581</v>
+        <v>8.768298917982282</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.56969770136414</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.313842197388679</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.90754877676422</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.07505451586554</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.04557490209099</v>
+      </c>
+      <c r="S25">
+        <v>13.77937615155928</v>
       </c>
     </row>
   </sheetData>
